--- a/tests/data/expected/GSE138669.xlsx
+++ b/tests/data/expected/GSE138669.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="4" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15820" windowWidth="28800" xWindow="0" yWindow="500"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="600" firstSheet="4" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" state="visible" r:id="rId1"/>
@@ -108,36 +108,36 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -542,15 +542,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="3" width="25.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="30.6640625"/>
-    <col customWidth="1" max="9" min="4" style="3" width="25.6640625"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="3" width="28.33203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="22.6640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="3" width="23.83203125"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="2"/>
+    <col width="30.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="9"/>
+    <col width="28.33203125" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
+    <col width="22.6640625" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
+    <col width="23.83203125" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>PROJECT LABEL (Required)</t>
@@ -612,7 +612,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="85" r="2" s="3">
+    <row r="2" ht="85" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A short name for the project.</t>
@@ -674,7 +674,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="119" r="3" s="3">
+    <row r="3" ht="119" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Project label is a short label by which you refer to the project. It should have no spaces and should be fewer than 50 characters. For example: CoolOrganProject.</t>
@@ -798,7 +798,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -817,7 +817,11 @@
       <c r="L5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Myofibroblast transcriptome indicates SFRP2+ fibroblast progenitors in systemic sclerosis skin</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Skin and lung fibrosis in systemic sclerosis (SSc) is driven by myofibroblasts, alpha-smooth muscle actin (SMA) expressing cells that produce matrix as well as increase tension on surrounding tissues. Myofibroblast progenitors have been described to arise from a variety of cell types in murine fibrosis models, but relatively modest insight is available as to their source and differentiation in fibrotic human diseases. We utilize single cell RNA-sequencing to examine the transcriptome changes that occur in fibroblasts in SSc skin and during myofibroblast differentiation. We show that dermal myofibroblasts arise from an SFRP2/DPP4-expressing progenitor fibroblast population. In SSc skin, fibroblasts undergo global changes in gene expression, including SFRP2-expressing fibroblasts, which globally upregulate expression of markers, such as PRSS23 and THBS1. However, only a fraction of SSc fibroblasts differentiate into myofibroblasts, as shown by expression of additional markers, such as SFRP4 and FNDC1. These results indicate that myofibroblasts derive from a specific fibroblast subpopulation in SSc skin, that their differentiation proceeds in two stages and that other fibroblast populations also shift transcriptomes in SSc skin, suggesting a cytokine driven process. The myofibroblast transcriptome implicates upstream transcription factors that should help further unravel the drivers of myofibroblast differentiation. Overall design: Using droplet-based single cell RNA sequencing we analyzed 12 scleroderma (SSc) biopsy skin specimens against 10 healthy controls. Clustering, pseudotime, and transcription factor inference analyses were performed and select marker gene were examined for coexpression using immunofluorescence.</t>
@@ -840,7 +844,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -858,42 +862,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="14" min="1" style="3" width="25.6640625"/>
-    <col hidden="1" max="16" min="15" style="3"/>
-    <col customWidth="1" max="18" min="17" style="3" width="25.6640625"/>
-    <col hidden="1" max="20" min="19" style="3"/>
-    <col customWidth="1" max="23" min="21" style="3" width="25.6640625"/>
-    <col hidden="1" max="25" min="24" style="3"/>
-    <col customWidth="1" max="33" min="26" style="3" width="25.6640625"/>
-    <col customWidth="1" max="34" min="34" style="3" width="26.6640625"/>
-    <col customWidth="1" max="38" min="35" style="3" width="25.6640625"/>
-    <col hidden="1" max="40" min="39" style="3"/>
-    <col customWidth="1" max="42" min="41" style="3" width="25.6640625"/>
-    <col hidden="1" max="44" min="43" style="3"/>
-    <col customWidth="1" max="46" min="45" style="3" width="25.6640625"/>
-    <col customWidth="1" hidden="1" max="48" min="47" style="3" width="8.83203125"/>
-    <col customWidth="1" max="49" min="49" style="3" width="25.6640625"/>
-    <col hidden="1" max="51" min="50" style="3"/>
-    <col customWidth="1" max="52" min="52" style="3" width="25.6640625"/>
-    <col customWidth="1" max="53" min="53" style="3" width="28.6640625"/>
-    <col customWidth="1" max="56" min="54" style="3" width="25.6640625"/>
-    <col customWidth="1" max="57" min="57" style="3" width="27.6640625"/>
-    <col customWidth="1" max="58" min="58" style="3" width="26.6640625"/>
-    <col hidden="1" max="60" min="59" style="3"/>
-    <col customWidth="1" max="61" min="61" style="3" width="25.6640625"/>
-    <col customWidth="1" max="62" min="62" style="3" width="42.6640625"/>
-    <col customWidth="1" max="63" min="63" style="3" width="35.6640625"/>
-    <col customWidth="1" max="64" min="64" style="3" width="33.6640625"/>
-    <col customWidth="1" max="65" min="65" style="3" width="37.6640625"/>
-    <col customWidth="1" max="74" min="66" style="3" width="25.6640625"/>
-    <col hidden="1" max="76" min="75" style="3"/>
-    <col customWidth="1" max="77" min="77" style="3" width="25.6640625"/>
-    <col hidden="1" max="79" min="78" style="3"/>
-    <col customWidth="1" max="80" min="80" style="3" width="25.6640625"/>
-    <col customWidth="1" max="81" min="81" style="3" width="37.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="14"/>
+    <col hidden="1" style="3" min="15" max="16"/>
+    <col width="25.6640625" customWidth="1" style="3" min="17" max="18"/>
+    <col hidden="1" style="3" min="19" max="20"/>
+    <col width="25.6640625" customWidth="1" style="3" min="21" max="23"/>
+    <col hidden="1" style="3" min="24" max="25"/>
+    <col width="25.6640625" customWidth="1" style="3" min="26" max="33"/>
+    <col width="26.6640625" customWidth="1" style="3" min="34" max="34"/>
+    <col width="25.6640625" customWidth="1" style="3" min="35" max="38"/>
+    <col hidden="1" style="3" min="39" max="40"/>
+    <col width="25.6640625" customWidth="1" style="3" min="41" max="42"/>
+    <col hidden="1" style="3" min="43" max="44"/>
+    <col width="25.6640625" customWidth="1" style="3" min="45" max="46"/>
+    <col hidden="1" width="8.83203125" customWidth="1" style="3" min="47" max="48"/>
+    <col width="25.6640625" customWidth="1" style="3" min="49" max="49"/>
+    <col hidden="1" style="3" min="50" max="51"/>
+    <col width="25.6640625" customWidth="1" style="3" min="52" max="52"/>
+    <col width="28.6640625" customWidth="1" style="3" min="53" max="53"/>
+    <col width="25.6640625" customWidth="1" style="3" min="54" max="56"/>
+    <col width="27.6640625" customWidth="1" style="3" min="57" max="57"/>
+    <col width="26.6640625" customWidth="1" style="3" min="58" max="58"/>
+    <col hidden="1" style="3" min="59" max="60"/>
+    <col width="25.6640625" customWidth="1" style="3" min="61" max="61"/>
+    <col width="42.6640625" customWidth="1" style="3" min="62" max="62"/>
+    <col width="35.6640625" customWidth="1" style="3" min="63" max="63"/>
+    <col width="33.6640625" customWidth="1" style="3" min="64" max="64"/>
+    <col width="37.6640625" customWidth="1" style="3" min="65" max="65"/>
+    <col width="25.6640625" customWidth="1" style="3" min="66" max="74"/>
+    <col hidden="1" style="3" min="75" max="76"/>
+    <col width="25.6640625" customWidth="1" style="3" min="77" max="77"/>
+    <col hidden="1" style="3" min="78" max="79"/>
+    <col width="25.6640625" customWidth="1" style="3" min="80" max="80"/>
+    <col width="37.6640625" customWidth="1" style="3" min="81" max="81"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CELL LINE ID (Required)</t>
@@ -1300,7 +1304,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
@@ -1707,7 +1711,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="170" r="3" s="3">
+    <row r="3" ht="170" customHeight="1" s="3">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
@@ -2086,7 +2090,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>cell_line.biomaterial_core.biomaterial_id</t>
@@ -2493,7 +2497,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -2581,7 +2585,7 @@
       <c r="CC5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2599,17 +2603,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="3" width="25.6640625"/>
-    <col hidden="1" max="5" min="4" style="3"/>
-    <col customWidth="1" max="16" min="6" style="3" width="25.6640625"/>
-    <col hidden="1" max="18" min="17" style="3"/>
-    <col customWidth="1" max="19" min="19" style="3" width="25.6640625"/>
-    <col hidden="1" max="21" min="20" style="3"/>
-    <col customWidth="1" max="22" min="22" style="3" width="25.6640625"/>
-    <col customWidth="1" max="23" min="23" style="3" width="37.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="3"/>
+    <col hidden="1" style="3" min="4" max="5"/>
+    <col width="25.6640625" customWidth="1" style="3" min="6" max="16"/>
+    <col hidden="1" style="3" min="17" max="18"/>
+    <col width="25.6640625" customWidth="1" style="3" min="19" max="19"/>
+    <col hidden="1" style="3" min="20" max="21"/>
+    <col width="25.6640625" customWidth="1" style="3" min="22" max="22"/>
+    <col width="37.6640625" customWidth="1" style="3" min="23" max="23"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>FILE NAME (Required)</t>
@@ -2726,7 +2730,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>The name of the file.</t>
@@ -2843,7 +2847,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="153" r="3" s="3">
+    <row r="3" ht="153" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Include the file extension in the file name. For example: R1.fastq.gz; codebook.json</t>
@@ -2948,7 +2952,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>supplementary_file.file_core.file_name</t>
@@ -3065,7 +3069,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -3095,7 +3099,7 @@
       <c r="W5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3113,21 +3117,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="3" width="25.6640625"/>
-    <col hidden="1" max="5" min="4" style="3"/>
-    <col customWidth="1" max="11" min="6" style="3" width="25.6640625"/>
-    <col customWidth="1" max="12" min="12" style="3" width="35.6640625"/>
-    <col customWidth="1" max="13" min="13" style="3" width="42.6640625"/>
-    <col customWidth="1" max="14" min="14" style="3" width="33.6640625"/>
-    <col customWidth="1" max="23" min="15" style="3" width="25.6640625"/>
-    <col hidden="1" max="25" min="24" style="3"/>
-    <col customWidth="1" max="26" min="26" style="3" width="25.6640625"/>
-    <col hidden="1" max="28" min="27" style="3"/>
-    <col customWidth="1" max="29" min="29" style="3" width="25.6640625"/>
-    <col customWidth="1" max="30" min="30" style="3" width="37.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="3"/>
+    <col hidden="1" style="3" min="4" max="5"/>
+    <col width="25.6640625" customWidth="1" style="3" min="6" max="11"/>
+    <col width="35.6640625" customWidth="1" style="3" min="12" max="12"/>
+    <col width="42.6640625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="33.6640625" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.6640625" customWidth="1" style="3" min="15" max="23"/>
+    <col hidden="1" style="3" min="24" max="25"/>
+    <col width="25.6640625" customWidth="1" style="3" min="26" max="26"/>
+    <col hidden="1" style="3" min="27" max="28"/>
+    <col width="25.6640625" customWidth="1" style="3" min="29" max="29"/>
+    <col width="37.6640625" customWidth="1" style="3" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>FILE NAME (Required)</t>
@@ -3279,7 +3283,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>The name of the file.</t>
@@ -3431,7 +3435,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="153" r="3" s="3">
+    <row r="3" ht="153" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Include the file extension in the file name. For example: R1.fastq.gz; codebook.json</t>
@@ -3567,7 +3571,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>sequence_file.file_core.file_name</t>
@@ -3719,7 +3723,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -4746,7 +4750,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4764,20 +4768,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="3" width="25.6640625"/>
-    <col hidden="1" max="5" min="4" style="3"/>
-    <col customWidth="1" max="6" min="6" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="35.6640625"/>
-    <col customWidth="1" max="8" min="8" style="3" width="30.6640625"/>
-    <col customWidth="1" max="17" min="9" style="3" width="25.6640625"/>
-    <col hidden="1" max="19" min="18" style="3"/>
-    <col customWidth="1" max="20" min="20" style="3" width="25.6640625"/>
-    <col hidden="1" max="22" min="21" style="3"/>
-    <col customWidth="1" max="23" min="23" style="3" width="25.6640625"/>
-    <col customWidth="1" max="24" min="24" style="3" width="37.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="3"/>
+    <col hidden="1" style="3" min="4" max="5"/>
+    <col width="25.6640625" customWidth="1" style="3" min="6" max="6"/>
+    <col width="35.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="30.6640625" customWidth="1" style="3" min="8" max="8"/>
+    <col width="25.6640625" customWidth="1" style="3" min="9" max="17"/>
+    <col hidden="1" style="3" min="18" max="19"/>
+    <col width="25.6640625" customWidth="1" style="3" min="20" max="20"/>
+    <col hidden="1" style="3" min="21" max="22"/>
+    <col width="25.6640625" customWidth="1" style="3" min="23" max="23"/>
+    <col width="37.6640625" customWidth="1" style="3" min="24" max="24"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>FILE NAME (Required)</t>
@@ -4899,7 +4903,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>The name of the file.</t>
@@ -5021,7 +5025,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="153" r="3" s="3">
+    <row r="3" ht="153" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Include the file extension in the file name. For example: R1.fastq.gz; codebook.json</t>
@@ -5127,7 +5131,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>image_file.file_core.file_name</t>
@@ -5249,7 +5253,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -5280,7 +5284,7 @@
       <c r="X5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5298,16 +5302,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="33.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="25.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="31.6640625"/>
-    <col customWidth="1" max="6" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="28.6640625"/>
-    <col hidden="1" max="9" min="8" style="3"/>
-    <col customWidth="1" max="15" min="10" style="3" width="25.6640625"/>
+    <col width="33.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="25.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="31.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="6"/>
+    <col width="28.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col hidden="1" style="3" min="8" max="9"/>
+    <col width="25.6640625" customWidth="1" style="3" min="10" max="15"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>COLLECTION PROTOCOL ID (Required)</t>
@@ -5384,7 +5388,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -5461,7 +5465,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="136" r="3" s="3">
+    <row r="3" ht="136" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -5530,7 +5534,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>collection_protocol.protocol_core.protocol_id</t>
@@ -5607,7 +5611,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -5629,7 +5633,7 @@
       <c r="O5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5647,16 +5651,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="35.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="26.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="33.6640625"/>
-    <col customWidth="1" max="6" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="30.6640625"/>
-    <col hidden="1" max="9" min="8" style="3"/>
-    <col customWidth="1" max="15" min="10" style="3" width="25.6640625"/>
+    <col width="35.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="26.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="33.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="6"/>
+    <col width="30.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col hidden="1" style="3" min="8" max="9"/>
+    <col width="25.6640625" customWidth="1" style="3" min="10" max="15"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>DISSOCIATION PROTOCOL ID (Required)</t>
@@ -5733,7 +5737,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -5810,7 +5814,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="136" r="3" s="3">
+    <row r="3" ht="136" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -5879,7 +5883,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>dissociation_protocol.protocol_core.protocol_id</t>
@@ -5956,7 +5960,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -5978,7 +5982,7 @@
       <c r="O5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5996,17 +6000,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="38.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="29.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="36.6640625"/>
-    <col customWidth="1" max="6" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="33.6640625"/>
-    <col customWidth="1" max="17" min="8" style="3" width="25.6640625"/>
-    <col customWidth="1" max="18" min="18" style="3" width="33.6640625"/>
-    <col customWidth="1" max="19" min="19" style="3" width="25.6640625"/>
+    <col width="38.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="29.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="36.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="6"/>
+    <col width="33.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="25.6640625" customWidth="1" style="3" min="8" max="17"/>
+    <col width="33.6640625" customWidth="1" style="3" min="18" max="18"/>
+    <col width="25.6640625" customWidth="1" style="3" min="19" max="19"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>DIFFERENTIATION PROTOCOL ID (Required)</t>
@@ -6103,7 +6107,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="68" r="2" s="3">
+    <row r="2" ht="68" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -6200,7 +6204,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="85" r="3" s="3">
+    <row r="3" ht="85" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -6289,7 +6293,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>differentiation_protocol.protocol_core.protocol_id</t>
@@ -6386,7 +6390,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -6412,7 +6416,7 @@
       <c r="S5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6430,16 +6434,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="33.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="25.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="31.6640625"/>
-    <col customWidth="1" max="6" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="28.6640625"/>
-    <col hidden="1" max="9" min="8" style="3"/>
-    <col customWidth="1" max="12" min="10" style="3" width="25.6640625"/>
+    <col width="33.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="25.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="31.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="6"/>
+    <col width="28.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col hidden="1" style="3" min="8" max="9"/>
+    <col width="25.6640625" customWidth="1" style="3" min="10" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ENRICHMENT PROTOCOL ID (Required)</t>
@@ -6501,7 +6505,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -6563,7 +6567,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="136" r="3" s="3">
+    <row r="3" ht="136" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -6617,7 +6621,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>enrichment_protocol.protocol_core.protocol_id</t>
@@ -6679,7 +6683,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -6698,7 +6702,7 @@
       <c r="L5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6716,15 +6720,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="43.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="34.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="41.6640625"/>
-    <col customWidth="1" max="6" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="37.6640625"/>
-    <col customWidth="1" max="8" min="8" style="3" width="25.6640625"/>
+    <col width="43.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="34.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="41.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="6"/>
+    <col width="37.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="25.6640625" customWidth="1" style="3" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>AGGREGATE GENERATION PROTOCOL ID (Required)</t>
@@ -6766,7 +6770,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="51" r="2" s="3">
+    <row r="2" ht="51" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -6808,7 +6812,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="85" r="3" s="3">
+    <row r="3" ht="85" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -6842,7 +6846,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>aggregate_generation_protocol.protocol_core.protocol_id</t>
@@ -6884,7 +6888,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -6899,7 +6903,7 @@
       <c r="H5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6917,22 +6921,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="37.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="28.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="35.6640625"/>
-    <col customWidth="1" max="6" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="27.6640625"/>
-    <col customWidth="1" max="8" min="8" style="3" width="25.6640625"/>
-    <col customWidth="1" max="9" min="9" style="3" width="27.6640625"/>
-    <col customWidth="1" max="10" min="10" style="3" width="30.6640625"/>
-    <col customWidth="1" max="11" min="11" style="3" width="28.6640625"/>
-    <col customWidth="1" max="12" min="12" style="3" width="32.6640625"/>
-    <col customWidth="1" max="13" min="13" style="3" width="27.6640625"/>
-    <col customWidth="1" max="16" min="14" style="3" width="25.6640625"/>
-    <col customWidth="1" max="17" min="17" style="3" width="26.6640625"/>
+    <col width="37.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="28.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="35.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="6"/>
+    <col width="27.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="25.6640625" customWidth="1" style="3" min="8" max="8"/>
+    <col width="27.6640625" customWidth="1" style="3" min="9" max="9"/>
+    <col width="30.6640625" customWidth="1" style="3" min="10" max="10"/>
+    <col width="28.6640625" customWidth="1" style="3" min="11" max="11"/>
+    <col width="32.6640625" customWidth="1" style="3" min="12" max="12"/>
+    <col width="27.6640625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="25.6640625" customWidth="1" style="3" min="14" max="16"/>
+    <col width="26.6640625" customWidth="1" style="3" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>IPSC INDUCTION PROTOCOL ID (Required)</t>
@@ -7019,7 +7023,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="68" r="2" s="3">
+    <row r="2" ht="68" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -7106,7 +7110,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="85" r="3" s="3">
+    <row r="3" ht="85" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -7185,7 +7189,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>ipsc_induction_protocol.protocol_core.protocol_id</t>
@@ -7272,7 +7276,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -7296,7 +7300,7 @@
       <c r="Q5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7306,7 +7310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7314,12 +7318,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="9" min="1" style="3" width="25.6640625"/>
-    <col hidden="1" max="11" min="10" style="3"/>
-    <col customWidth="1" max="12" min="12" style="3" width="25.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="9"/>
+    <col hidden="1" style="3" min="10" max="11"/>
+    <col width="25.6640625" customWidth="1" style="3" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CONTACT NAME (Required)</t>
@@ -7381,7 +7385,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Name of individual who has contributed to the project.</t>
@@ -7443,7 +7447,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="136" r="3" s="3">
+    <row r="3" ht="136" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Enter in the format: first name,middle name or initial,last name. For example: John,D,Doe; Jane,,Smith</t>
@@ -7505,7 +7509,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>project.contributors.name</t>
@@ -7567,7 +7571,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -7585,9 +7589,92 @@
       <c r="K5" s="1" t="n"/>
       <c r="L5" s="1" t="n"/>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dan,,Xue</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>University of Pittsburgh, Pittsburgh, Pennsylvania, and Xiangya Hospital, Central South University, Changsha, China.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tracy,,Tabib</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>University of Pittsburgh, Pittsburgh, Pennsylvania.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Christina,,Morse</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>University of Pittsburgh, Pittsburgh, Pennsylvania.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Yi,,Yang</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Xiangya Hospital, Central South University, Changsha, China.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Robyn T,,Domsic</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>University of Pittsburgh, Pittsburgh, Pennsylvania.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dinesh,,Khanna</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>University of Michigan, Ann Arbor.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Robert,,Lafyatis</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>University of Pittsburgh, Pittsburgh, Pennsylvania.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7605,23 +7692,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="42.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="33.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="40.6640625"/>
-    <col customWidth="1" max="9" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="10" min="10" style="3" width="40.6640625"/>
-    <col customWidth="1" max="11" min="11" style="3" width="33.6640625"/>
-    <col hidden="1" max="13" min="12" style="3"/>
-    <col customWidth="1" max="16" min="14" style="3" width="25.6640625"/>
-    <col hidden="1" max="18" min="17" style="3"/>
-    <col customWidth="1" max="19" min="19" style="3" width="25.6640625"/>
-    <col customWidth="1" max="20" min="20" style="3" width="27.6640625"/>
-    <col customWidth="1" max="21" min="21" style="3" width="37.6640625"/>
-    <col hidden="1" max="23" min="22" style="3"/>
-    <col customWidth="1" max="25" min="24" style="3" width="25.6640625"/>
+    <col width="42.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="33.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="40.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="9"/>
+    <col width="40.6640625" customWidth="1" style="3" min="10" max="10"/>
+    <col width="33.6640625" customWidth="1" style="3" min="11" max="11"/>
+    <col hidden="1" style="3" min="12" max="13"/>
+    <col width="25.6640625" customWidth="1" style="3" min="14" max="16"/>
+    <col hidden="1" style="3" min="17" max="18"/>
+    <col width="25.6640625" customWidth="1" style="3" min="19" max="19"/>
+    <col width="27.6640625" customWidth="1" style="3" min="20" max="20"/>
+    <col width="37.6640625" customWidth="1" style="3" min="21" max="21"/>
+    <col hidden="1" style="3" min="22" max="23"/>
+    <col width="25.6640625" customWidth="1" style="3" min="24" max="25"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>IMAGING PREPARATION PROTOCOL ID (Required)</t>
@@ -7748,7 +7835,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -7875,7 +7962,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="102" r="3" s="3">
+    <row r="3" ht="102" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -7994,7 +8081,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>imaging_preparation_protocol.protocol_core.protocol_id</t>
@@ -8121,7 +8208,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -8153,7 +8240,7 @@
       <c r="Y5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8171,22 +8258,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="30.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="25.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="28.6640625"/>
-    <col customWidth="1" max="6" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="28.6640625"/>
-    <col customWidth="1" max="8" min="8" style="3" width="31.6640625"/>
-    <col hidden="1" max="10" min="9" style="3"/>
-    <col customWidth="1" max="11" min="11" style="3" width="25.6640625"/>
-    <col customWidth="1" max="12" min="12" style="3" width="29.6640625"/>
-    <col customWidth="1" max="13" min="13" style="3" width="25.6640625"/>
-    <col customWidth="1" max="14" min="14" style="3" width="40.6640625"/>
-    <col customWidth="1" max="20" min="15" style="3" width="25.6640625"/>
-    <col customWidth="1" max="21" min="21" style="3" width="28.6640625"/>
+    <col width="30.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="25.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="28.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="6"/>
+    <col width="28.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="31.6640625" customWidth="1" style="3" min="8" max="8"/>
+    <col hidden="1" style="3" min="9" max="10"/>
+    <col width="25.6640625" customWidth="1" style="3" min="11" max="11"/>
+    <col width="29.6640625" customWidth="1" style="3" min="12" max="12"/>
+    <col width="25.6640625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="40.6640625" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.6640625" customWidth="1" style="3" min="15" max="20"/>
+    <col width="28.6640625" customWidth="1" style="3" min="21" max="21"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>IMAGING PROTOCOL ID (Required)</t>
@@ -8293,7 +8380,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -8400,7 +8487,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="153" r="3" s="3">
+    <row r="3" ht="153" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -8499,7 +8586,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>imaging_protocol.protocol_core.protocol_id</t>
@@ -8606,7 +8693,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -8634,7 +8721,7 @@
       <c r="U5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8652,50 +8739,50 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="42.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="33.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="40.6640625"/>
-    <col customWidth="1" max="6" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="49.6640625"/>
-    <col customWidth="1" max="9" min="8" style="3" width="40.6640625"/>
-    <col customWidth="1" max="10" min="10" style="3" width="38.6640625"/>
-    <col customWidth="1" max="14" min="11" style="3" width="25.6640625"/>
-    <col customWidth="1" max="15" min="15" style="3" width="38.6640625"/>
-    <col hidden="1" max="17" min="16" style="3"/>
-    <col customWidth="1" max="18" min="18" style="3" width="30.6640625"/>
-    <col customWidth="1" max="19" min="19" style="3" width="38.6640625"/>
-    <col hidden="1" max="21" min="20" style="3"/>
-    <col customWidth="1" max="22" min="22" style="3" width="38.6640625"/>
-    <col customWidth="1" max="23" min="23" style="3" width="41.6640625"/>
-    <col customWidth="1" max="24" min="24" style="3" width="39.6640625"/>
-    <col customWidth="1" max="25" min="25" style="3" width="43.6640625"/>
-    <col customWidth="1" max="26" min="26" style="3" width="38.6640625"/>
-    <col customWidth="1" max="27" min="27" style="3" width="32.6640625"/>
-    <col customWidth="1" max="28" min="28" style="3" width="41.6640625"/>
-    <col customWidth="1" max="29" min="29" style="3" width="44.6640625"/>
-    <col customWidth="1" max="30" min="30" style="3" width="42.6640625"/>
-    <col customWidth="1" max="31" min="31" style="3" width="46.6640625"/>
-    <col customWidth="1" max="32" min="32" style="3" width="41.6640625"/>
-    <col customWidth="1" max="33" min="33" style="3" width="35.6640625"/>
-    <col customWidth="1" max="36" min="34" style="3" width="25.6640625"/>
-    <col customWidth="1" max="37" min="37" style="3" width="26.6640625"/>
-    <col customWidth="1" max="38" min="38" style="3" width="29.6640625"/>
-    <col customWidth="1" max="39" min="39" style="3" width="27.6640625"/>
-    <col customWidth="1" max="40" min="40" style="3" width="31.6640625"/>
-    <col customWidth="1" max="41" min="41" style="3" width="26.6640625"/>
-    <col customWidth="1" max="43" min="42" style="3" width="25.6640625"/>
-    <col customWidth="1" max="44" min="44" style="3" width="48.6640625"/>
-    <col customWidth="1" max="46" min="45" style="3" width="39.6640625"/>
-    <col customWidth="1" max="47" min="47" style="3" width="37.6640625"/>
-    <col customWidth="1" max="48" min="48" style="3" width="32.6640625"/>
-    <col hidden="1" max="50" min="49" style="3"/>
-    <col customWidth="1" max="51" min="51" style="3" width="33.6640625"/>
-    <col hidden="1" max="53" min="52" style="3"/>
-    <col customWidth="1" max="54" min="54" style="3" width="25.6640625"/>
-    <col customWidth="1" max="55" min="55" style="3" width="26.6640625"/>
+    <col width="42.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="33.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="40.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="6"/>
+    <col width="49.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="40.6640625" customWidth="1" style="3" min="8" max="9"/>
+    <col width="38.6640625" customWidth="1" style="3" min="10" max="10"/>
+    <col width="25.6640625" customWidth="1" style="3" min="11" max="14"/>
+    <col width="38.6640625" customWidth="1" style="3" min="15" max="15"/>
+    <col hidden="1" style="3" min="16" max="17"/>
+    <col width="30.6640625" customWidth="1" style="3" min="18" max="18"/>
+    <col width="38.6640625" customWidth="1" style="3" min="19" max="19"/>
+    <col hidden="1" style="3" min="20" max="21"/>
+    <col width="38.6640625" customWidth="1" style="3" min="22" max="22"/>
+    <col width="41.6640625" customWidth="1" style="3" min="23" max="23"/>
+    <col width="39.6640625" customWidth="1" style="3" min="24" max="24"/>
+    <col width="43.6640625" customWidth="1" style="3" min="25" max="25"/>
+    <col width="38.6640625" customWidth="1" style="3" min="26" max="26"/>
+    <col width="32.6640625" customWidth="1" style="3" min="27" max="27"/>
+    <col width="41.6640625" customWidth="1" style="3" min="28" max="28"/>
+    <col width="44.6640625" customWidth="1" style="3" min="29" max="29"/>
+    <col width="42.6640625" customWidth="1" style="3" min="30" max="30"/>
+    <col width="46.6640625" customWidth="1" style="3" min="31" max="31"/>
+    <col width="41.6640625" customWidth="1" style="3" min="32" max="32"/>
+    <col width="35.6640625" customWidth="1" style="3" min="33" max="33"/>
+    <col width="25.6640625" customWidth="1" style="3" min="34" max="36"/>
+    <col width="26.6640625" customWidth="1" style="3" min="37" max="37"/>
+    <col width="29.6640625" customWidth="1" style="3" min="38" max="38"/>
+    <col width="27.6640625" customWidth="1" style="3" min="39" max="39"/>
+    <col width="31.6640625" customWidth="1" style="3" min="40" max="40"/>
+    <col width="26.6640625" customWidth="1" style="3" min="41" max="41"/>
+    <col width="25.6640625" customWidth="1" style="3" min="42" max="43"/>
+    <col width="48.6640625" customWidth="1" style="3" min="44" max="44"/>
+    <col width="39.6640625" customWidth="1" style="3" min="45" max="46"/>
+    <col width="37.6640625" customWidth="1" style="3" min="47" max="47"/>
+    <col width="32.6640625" customWidth="1" style="3" min="48" max="48"/>
+    <col hidden="1" style="3" min="49" max="50"/>
+    <col width="33.6640625" customWidth="1" style="3" min="51" max="51"/>
+    <col hidden="1" style="3" min="52" max="53"/>
+    <col width="25.6640625" customWidth="1" style="3" min="54" max="54"/>
+    <col width="26.6640625" customWidth="1" style="3" min="55" max="55"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="43" r="1" s="6">
+    <row r="1" ht="43" customFormat="1" customHeight="1" s="6">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>LIBRARY PREPARATION PROTOCOL ID (Required)</t>
@@ -8972,7 +9059,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="142" r="2" s="3">
+    <row r="2" ht="142" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -9249,7 +9336,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="142" r="3" s="3">
+    <row r="3" ht="142" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -9518,7 +9605,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>library_preparation_protocol.protocol_core.protocol_id</t>
@@ -9795,7 +9882,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -9856,66 +9943,9 @@
       <c r="BB5" s="1" t="n"/>
       <c r="BC5" s="1" t="n"/>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>library_protocol_1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Read1</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>polyA RNA</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>single cell</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Drop-seq</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>poly-dT</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>Read1</t>
-        </is>
-      </c>
-      <c r="AS6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="6"/>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9933,21 +9963,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="33.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="25.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="31.6640625"/>
-    <col customWidth="1" max="6" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="44.6640625"/>
-    <col hidden="1" max="9" min="8" style="3"/>
-    <col customWidth="1" max="11" min="10" style="3" width="25.6640625"/>
-    <col customWidth="1" max="12" min="12" style="3" width="28.6640625"/>
-    <col hidden="1" max="14" min="13" style="3"/>
-    <col customWidth="1" max="15" min="15" style="3" width="25.6640625"/>
-    <col customWidth="1" max="16" min="16" style="3" width="29.6640625"/>
-    <col customWidth="1" max="18" min="17" style="3" width="25.6640625"/>
+    <col width="33.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="25.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="31.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="6"/>
+    <col width="44.6640625" customWidth="1" style="3" min="7" max="7"/>
+    <col hidden="1" style="3" min="8" max="9"/>
+    <col width="25.6640625" customWidth="1" style="3" min="10" max="11"/>
+    <col width="28.6640625" customWidth="1" style="3" min="12" max="12"/>
+    <col hidden="1" style="3" min="13" max="14"/>
+    <col width="25.6640625" customWidth="1" style="3" min="15" max="15"/>
+    <col width="29.6640625" customWidth="1" style="3" min="16" max="16"/>
+    <col width="25.6640625" customWidth="1" style="3" min="17" max="18"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SEQUENCING PROTOCOL ID (Required)</t>
@@ -10039,7 +10069,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -10131,7 +10161,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="221" r="3" s="3">
+    <row r="3" ht="221" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -10215,7 +10245,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>sequencing_protocol.protocol_core.protocol_id</t>
@@ -10307,7 +10337,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -10342,7 +10372,7 @@
       <c r="L6" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10360,31 +10390,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="38.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="38.6640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="42.6640625"/>
-    <col customWidth="1" max="5" min="4" style="3" width="58.83203125"/>
-    <col customWidth="1" max="6" min="6" style="3" width="24.6640625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="3" width="25"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="3" width="39"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="38.83203125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="3" width="55"/>
-    <col customWidth="1" max="11" min="11" style="3" width="18.6640625"/>
-    <col customWidth="1" max="12" min="12" style="3" width="23.6640625"/>
-    <col customWidth="1" max="17" min="13" style="3" width="18.6640625"/>
-    <col customWidth="1" max="18" min="18" style="3" width="23.6640625"/>
-    <col customWidth="1" max="20" min="19" style="3" width="8.83203125"/>
-    <col customWidth="1" max="21" min="21" style="3" width="18.6640625"/>
-    <col bestFit="1" customWidth="1" max="22" min="22" style="3" width="31.33203125"/>
-    <col bestFit="1" customWidth="1" max="23" min="23" style="3" width="25.1640625"/>
-    <col customWidth="1" max="24" min="24" style="3" width="27.6640625"/>
-    <col customWidth="1" max="25" min="25" style="3" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="26" min="26" style="3" width="43.83203125"/>
-    <col customWidth="1" max="28" min="27" style="3" width="8.83203125"/>
-    <col customWidth="1" max="16384" min="29" style="3" width="8.83203125"/>
+    <col width="38.6640625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="38.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="42.6640625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="58.83203125" customWidth="1" style="3" min="4" max="5"/>
+    <col width="24.6640625" customWidth="1" style="3" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
+    <col width="39" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="38.83203125" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="55" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
+    <col width="18.6640625" customWidth="1" style="3" min="11" max="11"/>
+    <col width="23.6640625" customWidth="1" style="3" min="12" max="12"/>
+    <col width="18.6640625" customWidth="1" style="3" min="13" max="17"/>
+    <col width="23.6640625" customWidth="1" style="3" min="18" max="18"/>
+    <col width="8.83203125" customWidth="1" style="3" min="19" max="20"/>
+    <col width="18.6640625" customWidth="1" style="3" min="21" max="21"/>
+    <col width="31.33203125" bestFit="1" customWidth="1" style="3" min="22" max="22"/>
+    <col width="25.1640625" bestFit="1" customWidth="1" style="3" min="23" max="23"/>
+    <col width="27.6640625" customWidth="1" style="3" min="24" max="24"/>
+    <col width="30.6640625" customWidth="1" style="3" min="25" max="25"/>
+    <col width="43.83203125" bestFit="1" customWidth="1" style="3" min="26" max="26"/>
+    <col width="8.83203125" customWidth="1" style="3" min="27" max="28"/>
+    <col width="8.83203125" customWidth="1" style="3" min="29" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="50" r="1" s="3">
+    <row r="1" ht="50" customHeight="1" s="3">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>FILE NAME (Required)</t>
@@ -10526,7 +10556,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="50" r="2" s="3">
+    <row r="2" ht="50" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>The name of the file.</t>
@@ -10668,7 +10698,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="108" r="3" s="3">
+    <row r="3" ht="108" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Include the file extension in the file name. For example: R1.fastq.gz; codebook.json</t>
@@ -10778,7 +10808,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="4" s="3">
+    <row r="4" ht="27" customHeight="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>analysis_file.file_core.file_name</t>
@@ -10920,7 +10950,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -11347,7 +11377,7 @@
       <c r="R103" s="8" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11359,29 +11389,29 @@
   </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0" zoomScale="81" zoomScaleNormal="81">
+    <sheetView topLeftCell="C1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="28.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="30.6640625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="3" width="84.6640625"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="3" width="39.33203125"/>
-    <col customWidth="1" max="5" min="5" style="3" width="18.6640625"/>
-    <col bestFit="1" customWidth="1" max="7" min="6" style="3" width="33.1640625"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="3" width="31.33203125"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="3" width="34.33203125"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="3" width="58.83203125"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="3" width="32.1640625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="3" width="38.6640625"/>
-    <col customWidth="1" max="14" min="13" style="3" width="18.6640625"/>
-    <col customWidth="1" max="17" min="15" style="3" width="8.83203125"/>
-    <col customWidth="1" max="16384" min="18" style="3" width="8.83203125"/>
+    <col width="28.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="30.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="84.6640625" bestFit="1" customWidth="1" style="3" min="3" max="3"/>
+    <col width="39.33203125" bestFit="1" customWidth="1" style="3" min="4" max="4"/>
+    <col width="18.6640625" customWidth="1" style="3" min="5" max="5"/>
+    <col width="33.1640625" bestFit="1" customWidth="1" style="3" min="6" max="7"/>
+    <col width="31.33203125" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
+    <col width="34.33203125" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
+    <col width="58.83203125" bestFit="1" customWidth="1" style="3" min="10" max="10"/>
+    <col width="32.1640625" bestFit="1" customWidth="1" style="3" min="11" max="11"/>
+    <col width="38.6640625" bestFit="1" customWidth="1" style="3" min="12" max="12"/>
+    <col width="18.6640625" customWidth="1" style="3" min="13" max="14"/>
+    <col width="8.83203125" customWidth="1" style="3" min="15" max="17"/>
+    <col width="8.83203125" customWidth="1" style="3" min="18" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="50" r="1" s="3">
+    <row r="1" ht="50" customHeight="1" s="3">
       <c r="A1" s="5" t="inlineStr">
         <is>
           <t>ANALYSIS PROTOCOL ID</t>
@@ -11442,7 +11472,7 @@
       <c r="N1" s="5" t="n"/>
       <c r="O1" s="5" t="n"/>
     </row>
-    <row customHeight="1" ht="50" r="2" s="3">
+    <row r="2" ht="50" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the protocol.</t>
@@ -11487,7 +11517,7 @@
       <c r="N2" s="2" t="n"/>
       <c r="O2" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="119" r="3" s="3">
+    <row r="3" ht="119" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Protocol ID should have no spaces.</t>
@@ -11524,7 +11554,7 @@
       <c r="N3" s="2" t="n"/>
       <c r="O3" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="34" r="4" s="3">
+    <row r="4" ht="34" customHeight="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>analysis_protocol.protocol_core.protocol_id</t>
@@ -11581,7 +11611,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -11603,7 +11633,7 @@
       <c r="O5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11621,10 +11651,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="6" min="1" style="3" width="25.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="6"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>RETAIL NAME</t>
@@ -11656,7 +11686,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="68" r="2" s="3">
+    <row r="2" ht="68" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>The retail name of the kit/reagent.</t>
@@ -11688,7 +11718,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="85" r="3" s="3">
+    <row r="3" ht="85" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> For example: SureCell WTA 3' Library Prep Kit; CytoTune iPS 2.0 Sendai Reprogramming Kit</t>
@@ -11720,7 +11750,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>ipsc_induction_protocol.reagents.retail_name</t>
@@ -11752,7 +11782,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -11765,7 +11795,7 @@
       <c r="F5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11783,14 +11813,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="25.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="32.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="25.6640625"/>
-    <col customWidth="1" max="4" min="4" style="3" width="33.6640625"/>
-    <col customWidth="1" max="7" min="5" style="3" width="25.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="32.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="25.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="33.6640625" customWidth="1" style="3" min="4" max="4"/>
+    <col width="25.6640625" customWidth="1" style="3" min="5" max="7"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CHANNEL ID (Required)</t>
@@ -11827,7 +11857,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="85" r="2" s="3">
+    <row r="2" ht="85" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>User given ID.  If there is an accompanying codebook, this name should correspond to the channel id used in the codebook.</t>
@@ -11864,7 +11894,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="51" r="3" s="3">
+    <row r="3" ht="51" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> For example: 1; A</t>
@@ -11901,7 +11931,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>imaging_protocol.channel.channel_id</t>
@@ -11938,7 +11968,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -11952,7 +11982,7 @@
       <c r="G5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -11970,21 +12000,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="3" width="25.6640625"/>
-    <col customWidth="1" max="6" min="6" style="3" width="28.6640625"/>
-    <col hidden="1" max="8" min="7" style="3"/>
-    <col customWidth="1" max="9" min="9" style="3" width="41.6640625"/>
-    <col customWidth="1" max="10" min="10" style="3" width="44.6640625"/>
-    <col customWidth="1" max="11" min="11" style="3" width="42.6640625"/>
-    <col customWidth="1" max="12" min="12" style="3" width="46.6640625"/>
-    <col customWidth="1" max="13" min="13" style="3" width="41.6640625"/>
-    <col customWidth="1" max="14" min="14" style="3" width="35.6640625"/>
-    <col customWidth="1" max="15" min="15" style="3" width="25.6640625"/>
-    <col hidden="1" max="17" min="16" style="3"/>
-    <col customWidth="1" max="18" min="18" style="3" width="25.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="5"/>
+    <col width="28.6640625" customWidth="1" style="3" min="6" max="6"/>
+    <col hidden="1" style="3" min="7" max="8"/>
+    <col width="41.6640625" customWidth="1" style="3" min="9" max="9"/>
+    <col width="44.6640625" customWidth="1" style="3" min="10" max="10"/>
+    <col width="42.6640625" customWidth="1" style="3" min="11" max="11"/>
+    <col width="46.6640625" customWidth="1" style="3" min="12" max="12"/>
+    <col width="41.6640625" customWidth="1" style="3" min="13" max="13"/>
+    <col width="35.6640625" customWidth="1" style="3" min="14" max="14"/>
+    <col width="25.6640625" customWidth="1" style="3" min="15" max="15"/>
+    <col hidden="1" style="3" min="16" max="17"/>
+    <col width="25.6640625" customWidth="1" style="3" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>PROBE LABEL (Required)</t>
@@ -12076,7 +12106,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>The label of a probe used to detect target in this experiment.</t>
@@ -12168,7 +12198,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="153" r="3" s="3">
+    <row r="3" ht="153" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> For example: ACTA1; cFos</t>
@@ -12260,7 +12290,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>imaging_protocol.probe.probe_label</t>
@@ -12352,7 +12382,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -12377,7 +12407,7 @@
       <c r="R5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12395,10 +12425,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="3" width="25.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="3"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>PARENT</t>
@@ -12415,7 +12445,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17" r="2" s="3">
+    <row r="2" ht="17" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>The individual's parent.</t>
@@ -12432,7 +12462,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34" r="3" s="3">
+    <row r="3" ht="34" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Enter the ID of the parent of this individual.</t>
@@ -12449,7 +12479,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>donor_organism.familial_relationships.parent</t>
@@ -12466,7 +12496,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -12476,7 +12506,7 @@
       <c r="C5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12494,13 +12524,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="25.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="28.6640625"/>
-    <col customWidth="1" max="5" min="3" style="3" width="25.6640625"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="3" width="24"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="28.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="25.6640625" customWidth="1" style="3" min="3" max="5"/>
+    <col width="24" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>AUTHORS (Required)</t>
@@ -12532,7 +12562,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="113" r="2" s="3">
+    <row r="2" ht="113" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A list of authors associated with the publication.</t>
@@ -12564,7 +12594,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="68" r="3" s="3">
+    <row r="3" ht="68" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>List each author in 'surname initials' format. For example: Doe JD</t>
@@ -12628,7 +12658,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -12641,14 +12671,30 @@
       <c r="F5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Xue D||Tabib T||Morse C||Yang Y||Domsic RT||Khanna D||Lafyatis R</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Expansion of Fcγ Receptor IIIa-Positive Macrophages, Ficolin 1-Positive Monocyte-Derived Dendritic Cells, and Plasmacytoid Dendritic Cells Associated With Severe Skin Disease in Systemic Sclerosis.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.1002/art.41813</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34042322</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12884,7 +12930,7 @@
     <hyperlink ref="A26" r:id="rId25"/>
     <hyperlink ref="A27" r:id="rId26"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12894,7 +12940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
@@ -12902,11 +12948,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="3" width="25.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="31.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="2"/>
+    <col width="31.6640625" customWidth="1" style="3" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>GRANT TITLE</t>
@@ -12923,7 +12969,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="34" r="2" s="3">
+    <row r="2" ht="34" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>The name of the grant funding the project.</t>
@@ -12940,7 +12986,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="68" r="3" s="3">
+    <row r="3" ht="68" customHeight="1" s="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Enter a title of approximately 30 words. For example: Study of single cells in the human body.</t>
@@ -12957,7 +13003,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>project.funders.grant_title</t>
@@ -12974,7 +13020,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -12983,9 +13029,56 @@
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="n"/>
     </row>
-    <row r="6"/>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P50 AR060780</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NIAMS NIH HHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>R61 AR076819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NIAMS NIH HHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>P50AR060780</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NIAMS NIH HHS</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>P50AR060780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NIAMS NIH HHS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -13003,45 +13096,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="28.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="25.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="26.6640625"/>
-    <col customWidth="1" max="11" min="4" style="3" width="25.6640625"/>
-    <col hidden="1" max="13" min="12" style="3"/>
-    <col customWidth="1" max="14" min="14" style="3" width="25.6640625"/>
-    <col hidden="1" max="16" min="15" style="3"/>
-    <col customWidth="1" max="17" min="17" style="3" width="25.6640625"/>
-    <col hidden="1" max="19" min="18" style="3"/>
-    <col customWidth="1" max="20" min="20" style="3" width="25.6640625"/>
-    <col customWidth="1" max="21" min="21" style="3" width="30.6640625"/>
-    <col customWidth="1" max="23" min="22" style="3" width="25.6640625"/>
-    <col hidden="1" max="25" min="24" style="3"/>
-    <col customWidth="1" max="26" min="26" style="3" width="28.6640625"/>
-    <col hidden="1" max="28" min="27" style="3"/>
-    <col customWidth="1" max="29" min="29" style="3" width="25.6640625"/>
-    <col customWidth="1" hidden="1" max="31" min="30" style="3" width="8.83203125"/>
-    <col customWidth="1" max="33" min="32" style="3" width="25.6640625"/>
-    <col customWidth="1" max="34" min="34" style="3" width="28.6640625"/>
-    <col customWidth="1" max="37" min="35" style="3" width="25.6640625"/>
-    <col customWidth="1" max="38" min="38" style="3" width="31.6640625"/>
-    <col customWidth="1" max="46" min="39" style="3" width="25.6640625"/>
-    <col hidden="1" max="48" min="47" style="3"/>
-    <col customWidth="1" max="50" min="49" style="3" width="25.6640625"/>
-    <col hidden="1" max="52" min="51" style="3"/>
-    <col customWidth="1" max="54" min="53" style="3" width="25.6640625"/>
-    <col hidden="1" max="56" min="55" style="3"/>
-    <col customWidth="1" max="57" min="57" style="3" width="27.6640625"/>
-    <col customWidth="1" max="58" min="58" style="3" width="26.6640625"/>
-    <col hidden="1" max="60" min="59" style="3"/>
-    <col customWidth="1" max="70" min="61" style="3" width="25.6640625"/>
-    <col hidden="1" max="72" min="71" style="3"/>
-    <col customWidth="1" max="73" min="73" style="3" width="25.6640625"/>
-    <col hidden="1" max="75" min="74" style="3"/>
-    <col customWidth="1" max="76" min="76" style="3" width="25.6640625"/>
-    <col customWidth="1" max="77" min="77" style="3" width="37.6640625"/>
+    <col width="28.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="25.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="26.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="11"/>
+    <col hidden="1" style="3" min="12" max="13"/>
+    <col width="25.6640625" customWidth="1" style="3" min="14" max="14"/>
+    <col hidden="1" style="3" min="15" max="16"/>
+    <col width="25.6640625" customWidth="1" style="3" min="17" max="17"/>
+    <col hidden="1" style="3" min="18" max="19"/>
+    <col width="25.6640625" customWidth="1" style="3" min="20" max="20"/>
+    <col width="30.6640625" customWidth="1" style="3" min="21" max="21"/>
+    <col width="25.6640625" customWidth="1" style="3" min="22" max="23"/>
+    <col hidden="1" style="3" min="24" max="25"/>
+    <col width="28.6640625" customWidth="1" style="3" min="26" max="26"/>
+    <col hidden="1" style="3" min="27" max="28"/>
+    <col width="25.6640625" customWidth="1" style="3" min="29" max="29"/>
+    <col hidden="1" width="8.83203125" customWidth="1" style="3" min="30" max="31"/>
+    <col width="25.6640625" customWidth="1" style="3" min="32" max="33"/>
+    <col width="28.6640625" customWidth="1" style="3" min="34" max="34"/>
+    <col width="25.6640625" customWidth="1" style="3" min="35" max="37"/>
+    <col width="31.6640625" customWidth="1" style="3" min="38" max="38"/>
+    <col width="25.6640625" customWidth="1" style="3" min="39" max="46"/>
+    <col hidden="1" style="3" min="47" max="48"/>
+    <col width="25.6640625" customWidth="1" style="3" min="49" max="50"/>
+    <col hidden="1" style="3" min="51" max="52"/>
+    <col width="25.6640625" customWidth="1" style="3" min="53" max="54"/>
+    <col hidden="1" style="3" min="55" max="56"/>
+    <col width="27.6640625" customWidth="1" style="3" min="57" max="57"/>
+    <col width="26.6640625" customWidth="1" style="3" min="58" max="58"/>
+    <col hidden="1" style="3" min="59" max="60"/>
+    <col width="25.6640625" customWidth="1" style="3" min="61" max="70"/>
+    <col hidden="1" style="3" min="71" max="72"/>
+    <col width="25.6640625" customWidth="1" style="3" min="73" max="73"/>
+    <col hidden="1" style="3" min="74" max="75"/>
+    <col width="25.6640625" customWidth="1" style="3" min="76" max="76"/>
+    <col width="37.6640625" customWidth="1" style="3" min="77" max="77"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>DONOR ORGANISM ID (Required)</t>
@@ -13428,7 +13521,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
@@ -13815,7 +13908,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="153" r="3" s="3">
+    <row r="3" ht="153" customHeight="1" s="3">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
@@ -14178,7 +14271,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>donor_organism.biomaterial_core.biomaterial_id</t>
@@ -14565,7 +14658,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -14649,7 +14742,7 @@
       <c r="BY5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14667,37 +14760,37 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="36.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="27.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="34.6640625"/>
-    <col customWidth="1" max="10" min="4" style="3" width="25.6640625"/>
-    <col hidden="1" max="12" min="11" style="3"/>
-    <col customWidth="1" max="13" min="13" style="3" width="25.6640625"/>
-    <col hidden="1" max="15" min="14" style="3"/>
-    <col customWidth="1" max="16" min="16" style="3" width="25.6640625"/>
-    <col hidden="1" max="18" min="17" style="3"/>
-    <col customWidth="1" max="19" min="19" style="3" width="25.6640625"/>
-    <col customWidth="1" hidden="1" max="21" min="20" style="3" width="8.83203125"/>
-    <col customWidth="1" max="32" min="22" style="3" width="25.6640625"/>
-    <col hidden="1" max="34" min="33" style="3"/>
-    <col customWidth="1" max="36" min="35" style="3" width="25.6640625"/>
-    <col customWidth="1" max="37" min="37" style="3" width="32.6640625"/>
-    <col customWidth="1" max="38" min="38" style="3" width="35.6640625"/>
-    <col customWidth="1" max="39" min="39" style="3" width="33.6640625"/>
-    <col customWidth="1" max="40" min="40" style="3" width="37.6640625"/>
-    <col customWidth="1" max="41" min="41" style="3" width="32.6640625"/>
-    <col customWidth="1" max="42" min="42" style="3" width="26.6640625"/>
-    <col customWidth="1" max="43" min="43" style="3" width="34.6640625"/>
-    <col customWidth="1" max="44" min="44" style="3" width="33.6640625"/>
-    <col customWidth="1" max="53" min="45" style="3" width="25.6640625"/>
-    <col hidden="1" max="55" min="54" style="3"/>
-    <col customWidth="1" max="56" min="56" style="3" width="25.6640625"/>
-    <col hidden="1" max="58" min="57" style="3"/>
-    <col customWidth="1" max="59" min="59" style="3" width="25.6640625"/>
-    <col customWidth="1" max="60" min="60" style="3" width="37.6640625"/>
+    <col width="36.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="27.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="34.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="10"/>
+    <col hidden="1" style="3" min="11" max="12"/>
+    <col width="25.6640625" customWidth="1" style="3" min="13" max="13"/>
+    <col hidden="1" style="3" min="14" max="15"/>
+    <col width="25.6640625" customWidth="1" style="3" min="16" max="16"/>
+    <col hidden="1" style="3" min="17" max="18"/>
+    <col width="25.6640625" customWidth="1" style="3" min="19" max="19"/>
+    <col hidden="1" width="8.83203125" customWidth="1" style="3" min="20" max="21"/>
+    <col width="25.6640625" customWidth="1" style="3" min="22" max="32"/>
+    <col hidden="1" style="3" min="33" max="34"/>
+    <col width="25.6640625" customWidth="1" style="3" min="35" max="36"/>
+    <col width="32.6640625" customWidth="1" style="3" min="37" max="37"/>
+    <col width="35.6640625" customWidth="1" style="3" min="38" max="38"/>
+    <col width="33.6640625" customWidth="1" style="3" min="39" max="39"/>
+    <col width="37.6640625" customWidth="1" style="3" min="40" max="40"/>
+    <col width="32.6640625" customWidth="1" style="3" min="41" max="41"/>
+    <col width="26.6640625" customWidth="1" style="3" min="42" max="42"/>
+    <col width="34.6640625" customWidth="1" style="3" min="43" max="43"/>
+    <col width="33.6640625" customWidth="1" style="3" min="44" max="44"/>
+    <col width="25.6640625" customWidth="1" style="3" min="45" max="53"/>
+    <col hidden="1" style="3" min="54" max="55"/>
+    <col width="25.6640625" customWidth="1" style="3" min="56" max="56"/>
+    <col hidden="1" style="3" min="57" max="58"/>
+    <col width="25.6640625" customWidth="1" style="3" min="59" max="59"/>
+    <col width="37.6640625" customWidth="1" style="3" min="60" max="60"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SPECIMEN FROM ORGANISM ID (Required)</t>
@@ -14999,7 +15092,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
@@ -15301,7 +15394,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="153" r="3" s="3">
+    <row r="3" ht="153" customHeight="1" s="3">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
@@ -15575,7 +15668,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>specimen_from_organism.biomaterial_core.biomaterial_id</t>
@@ -15877,7 +15970,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -16956,7 +17049,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -16974,34 +17067,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="29.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="25.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="27.6640625"/>
-    <col customWidth="1" max="12" min="4" style="3" width="25.6640625"/>
-    <col hidden="1" max="14" min="13" style="3"/>
-    <col customWidth="1" max="22" min="15" style="3" width="25.6640625"/>
-    <col customWidth="1" max="23" min="23" style="3" width="26.6640625"/>
-    <col customWidth="1" max="26" min="24" style="3" width="25.6640625"/>
-    <col hidden="1" max="28" min="27" style="3"/>
-    <col customWidth="1" max="29" min="29" style="3" width="25.6640625"/>
-    <col hidden="1" max="31" min="30" style="3"/>
-    <col customWidth="1" max="35" min="32" style="3" width="25.6640625"/>
-    <col customWidth="1" max="36" min="36" style="3" width="27.6640625"/>
-    <col customWidth="1" max="37" min="37" style="3" width="26.6640625"/>
-    <col hidden="1" max="39" min="38" style="3"/>
-    <col customWidth="1" max="40" min="40" style="3" width="25.6640625"/>
-    <col customWidth="1" max="41" min="41" style="3" width="42.6640625"/>
-    <col customWidth="1" max="42" min="42" style="3" width="35.6640625"/>
-    <col customWidth="1" max="43" min="43" style="3" width="33.6640625"/>
-    <col customWidth="1" max="52" min="44" style="3" width="25.6640625"/>
-    <col hidden="1" max="54" min="53" style="3"/>
-    <col customWidth="1" max="55" min="55" style="3" width="25.6640625"/>
-    <col hidden="1" max="57" min="56" style="3"/>
-    <col customWidth="1" max="58" min="58" style="3" width="25.6640625"/>
-    <col customWidth="1" max="59" min="59" style="3" width="37.6640625"/>
+    <col width="29.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="25.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="27.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="12"/>
+    <col hidden="1" style="3" min="13" max="14"/>
+    <col width="25.6640625" customWidth="1" style="3" min="15" max="22"/>
+    <col width="26.6640625" customWidth="1" style="3" min="23" max="23"/>
+    <col width="25.6640625" customWidth="1" style="3" min="24" max="26"/>
+    <col hidden="1" style="3" min="27" max="28"/>
+    <col width="25.6640625" customWidth="1" style="3" min="29" max="29"/>
+    <col hidden="1" style="3" min="30" max="31"/>
+    <col width="25.6640625" customWidth="1" style="3" min="32" max="35"/>
+    <col width="27.6640625" customWidth="1" style="3" min="36" max="36"/>
+    <col width="26.6640625" customWidth="1" style="3" min="37" max="37"/>
+    <col hidden="1" style="3" min="38" max="39"/>
+    <col width="25.6640625" customWidth="1" style="3" min="40" max="40"/>
+    <col width="42.6640625" customWidth="1" style="3" min="41" max="41"/>
+    <col width="35.6640625" customWidth="1" style="3" min="42" max="42"/>
+    <col width="33.6640625" customWidth="1" style="3" min="43" max="43"/>
+    <col width="25.6640625" customWidth="1" style="3" min="44" max="52"/>
+    <col hidden="1" style="3" min="53" max="54"/>
+    <col width="25.6640625" customWidth="1" style="3" min="55" max="55"/>
+    <col hidden="1" style="3" min="56" max="57"/>
+    <col width="25.6640625" customWidth="1" style="3" min="58" max="58"/>
+    <col width="37.6640625" customWidth="1" style="3" min="59" max="59"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>CELL SUSPENSION ID (Required)</t>
@@ -17298,7 +17391,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
@@ -17595,7 +17688,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="170" r="3" s="3">
+    <row r="3" ht="170" customHeight="1" s="3">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
@@ -17864,7 +17957,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>cell_suspension.biomaterial_core.biomaterial_id</t>
@@ -18161,7 +18254,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -18887,7 +18980,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -18905,31 +18998,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="10" min="1" style="3" width="25.6640625"/>
-    <col hidden="1" max="12" min="11" style="3"/>
-    <col customWidth="1" max="13" min="13" style="3" width="25.6640625"/>
-    <col hidden="1" max="15" min="14" style="3"/>
-    <col customWidth="1" max="16" min="16" style="3" width="25.6640625"/>
-    <col hidden="1" max="18" min="17" style="3"/>
-    <col customWidth="1" max="20" min="19" style="3" width="25.6640625"/>
-    <col hidden="1" max="22" min="21" style="3"/>
-    <col customWidth="1" max="24" min="23" style="3" width="25.6640625"/>
-    <col hidden="1" max="26" min="25" style="3"/>
-    <col customWidth="1" max="29" min="27" style="3" width="25.6640625"/>
-    <col customWidth="1" max="30" min="30" style="3" width="26.6640625"/>
-    <col customWidth="1" max="31" min="31" style="3" width="25.6640625"/>
-    <col customWidth="1" max="32" min="32" style="3" width="42.6640625"/>
-    <col customWidth="1" max="33" min="33" style="3" width="43.6640625"/>
-    <col customWidth="1" max="34" min="34" style="3" width="38.6640625"/>
-    <col customWidth="1" max="43" min="35" style="3" width="25.6640625"/>
-    <col hidden="1" max="45" min="44" style="3"/>
-    <col customWidth="1" max="46" min="46" style="3" width="25.6640625"/>
-    <col hidden="1" max="48" min="47" style="3"/>
-    <col customWidth="1" max="49" min="49" style="3" width="25.6640625"/>
-    <col customWidth="1" max="50" min="50" style="3" width="37.6640625"/>
+    <col width="25.6640625" customWidth="1" style="3" min="1" max="10"/>
+    <col hidden="1" style="3" min="11" max="12"/>
+    <col width="25.6640625" customWidth="1" style="3" min="13" max="13"/>
+    <col hidden="1" style="3" min="14" max="15"/>
+    <col width="25.6640625" customWidth="1" style="3" min="16" max="16"/>
+    <col hidden="1" style="3" min="17" max="18"/>
+    <col width="25.6640625" customWidth="1" style="3" min="19" max="20"/>
+    <col hidden="1" style="3" min="21" max="22"/>
+    <col width="25.6640625" customWidth="1" style="3" min="23" max="24"/>
+    <col hidden="1" style="3" min="25" max="26"/>
+    <col width="25.6640625" customWidth="1" style="3" min="27" max="29"/>
+    <col width="26.6640625" customWidth="1" style="3" min="30" max="30"/>
+    <col width="25.6640625" customWidth="1" style="3" min="31" max="31"/>
+    <col width="42.6640625" customWidth="1" style="3" min="32" max="32"/>
+    <col width="43.6640625" customWidth="1" style="3" min="33" max="33"/>
+    <col width="38.6640625" customWidth="1" style="3" min="34" max="34"/>
+    <col width="25.6640625" customWidth="1" style="3" min="35" max="43"/>
+    <col hidden="1" style="3" min="44" max="45"/>
+    <col width="25.6640625" customWidth="1" style="3" min="46" max="46"/>
+    <col hidden="1" style="3" min="47" max="48"/>
+    <col width="25.6640625" customWidth="1" style="3" min="49" max="49"/>
+    <col width="37.6640625" customWidth="1" style="3" min="50" max="50"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>ORGANOID ID (Required)</t>
@@ -19181,7 +19274,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
@@ -19433,7 +19526,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="136" r="3" s="3">
+    <row r="3" ht="136" customHeight="1" s="3">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
@@ -19657,7 +19750,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>organoid.biomaterial_core.biomaterial_id</t>
@@ -19909,7 +20002,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -19966,7 +20059,7 @@
       <c r="AX5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -19984,23 +20077,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="29.6640625"/>
-    <col customWidth="1" max="2" min="2" style="3" width="25.6640625"/>
-    <col customWidth="1" max="3" min="3" style="3" width="27.6640625"/>
-    <col customWidth="1" max="10" min="4" style="3" width="25.6640625"/>
-    <col customWidth="1" max="11" min="11" style="3" width="33.6640625"/>
-    <col customWidth="1" max="12" min="12" style="3" width="26.6640625"/>
-    <col hidden="1" max="14" min="13" style="3"/>
-    <col customWidth="1" max="16" min="15" style="3" width="42.6640625"/>
-    <col customWidth="1" max="25" min="17" style="3" width="25.6640625"/>
-    <col hidden="1" max="27" min="26" style="3"/>
-    <col customWidth="1" max="28" min="28" style="3" width="25.6640625"/>
-    <col hidden="1" max="30" min="29" style="3"/>
-    <col customWidth="1" max="31" min="31" style="3" width="25.6640625"/>
-    <col customWidth="1" max="32" min="32" style="3" width="37.6640625"/>
+    <col width="29.6640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="25.6640625" customWidth="1" style="3" min="2" max="2"/>
+    <col width="27.6640625" customWidth="1" style="3" min="3" max="3"/>
+    <col width="25.6640625" customWidth="1" style="3" min="4" max="10"/>
+    <col width="33.6640625" customWidth="1" style="3" min="11" max="11"/>
+    <col width="26.6640625" customWidth="1" style="3" min="12" max="12"/>
+    <col hidden="1" style="3" min="13" max="14"/>
+    <col width="42.6640625" customWidth="1" style="3" min="15" max="16"/>
+    <col width="25.6640625" customWidth="1" style="3" min="17" max="25"/>
+    <col hidden="1" style="3" min="26" max="27"/>
+    <col width="25.6640625" customWidth="1" style="3" min="28" max="28"/>
+    <col hidden="1" style="3" min="29" max="30"/>
+    <col width="25.6640625" customWidth="1" style="3" min="31" max="31"/>
+    <col width="37.6640625" customWidth="1" style="3" min="32" max="32"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="3">
+    <row r="1" ht="30" customHeight="1" s="3">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>IMAGED SPECIMEN ID (Required)</t>
@@ -20162,7 +20255,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="306" r="2" s="3">
+    <row r="2" ht="306" customHeight="1" s="3">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>A unique ID for the biomaterial.</t>
@@ -20324,7 +20417,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="136" r="3" s="3">
+    <row r="3" ht="136" customHeight="1" s="3">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
@@ -20458,7 +20551,7 @@
         </is>
       </c>
     </row>
-    <row hidden="1" r="4" s="3">
+    <row r="4" hidden="1" s="3">
       <c r="A4" t="inlineStr">
         <is>
           <t>imaged_specimen.biomaterial_core.biomaterial_id</t>
@@ -20620,7 +20713,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="3">
+    <row r="5" ht="30" customHeight="1" s="3">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>FILL OUT INFORMATION BELOW THIS ROW</t>
@@ -20659,6 +20752,6 @@
       <c r="AF5" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>